--- a/output/aggregate_tables/Area Statistics/area_Salmon_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_Salmon_summary.xlsx
@@ -637,7 +637,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>

--- a/output/aggregate_tables/Area Statistics/area_Salmon_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_Salmon_summary.xlsx
@@ -9,9 +9,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Number" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Tier" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary of Stocks" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Number" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Area)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Tier)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary of Area by Tier" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Number" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Area)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Tier)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Landings" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,8 +22,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -51,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -125,27 +128,6 @@
       <bottom style="thin"/>
     </border>
     <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin"/>
@@ -195,11 +177,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1025,7 +1009,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
@@ -1047,6 +1031,230 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>No. of stocks</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>No. of ASFIS species</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>No. of ISSCAAP groups</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>No. of U</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>No. of MSF</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>No. of O</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sustainable</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Unsustainable</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Tier 1</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>32.35294117647059</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>36.76470588235294</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>30.88235294117647</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>69.11764705882352</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>30.88235294117647</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Tier 2</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Tier 3</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1301,161 +1509,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="C1" s="8" t="inlineStr">
-        <is>
-          <t>Salmon</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="inlineStr">
-        <is>
-          <t>Total Landings</t>
-        </is>
-      </c>
-      <c r="B2" s="8" t="inlineStr">
-        <is>
-          <t>U (Mt)</t>
-        </is>
-      </c>
-      <c r="C2" s="9" t="n">
-        <v>0.07400945213675213</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="10" t="n"/>
-      <c r="B3" s="8" t="inlineStr">
-        <is>
-          <t>MSF (Mt)</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>0.2658024863247863</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="10" t="n"/>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>O (Mt)</t>
-        </is>
-      </c>
-      <c r="C4" s="9" t="n">
-        <v>0.03519706153846154</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="10" t="n"/>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (Mt)</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>0.3398119384615385</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="n"/>
-      <c r="B6" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (Mt)</t>
-        </is>
-      </c>
-      <c r="C6" s="9" t="n">
-        <v>0.03519706153846154</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>Weighted % by Landings</t>
-        </is>
-      </c>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>19.7353802540078</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="10" t="n"/>
-      <c r="B8" s="8" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>70.87896192485682</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="10" t="n"/>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>9.38565782113537</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="10" t="n"/>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>90.61434217886463</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11" t="n"/>
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>9.38565782113537</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A2:A6"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1470,19 +1530,19 @@
           <t>Total Landings</t>
         </is>
       </c>
-      <c r="C1" s="12" t="n"/>
-      <c r="D1" s="12" t="n"/>
-      <c r="E1" s="12" t="n"/>
-      <c r="F1" s="13" t="n"/>
+      <c r="C1" s="9" t="n"/>
+      <c r="D1" s="9" t="n"/>
+      <c r="E1" s="9" t="n"/>
+      <c r="F1" s="10" t="n"/>
       <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Weighted % by Landings</t>
         </is>
       </c>
-      <c r="H1" s="12" t="n"/>
-      <c r="I1" s="12" t="n"/>
-      <c r="J1" s="12" t="n"/>
-      <c r="K1" s="13" t="n"/>
+      <c r="H1" s="9" t="n"/>
+      <c r="I1" s="9" t="n"/>
+      <c r="J1" s="9" t="n"/>
+      <c r="K1" s="10" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="8" t="inlineStr"/>
@@ -1538,11 +1598,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="inlineStr">
-        <is>
-          <t>Area</t>
-        </is>
-      </c>
+      <c r="A3" s="4" t="n"/>
       <c r="B3" s="4" t="n"/>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
@@ -1560,19 +1616,19 @@
           <t>Salmon</t>
         </is>
       </c>
-      <c r="B4" s="9" t="n">
+      <c r="B4" s="11" t="n">
         <v>0.07400945213675213</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>0.2658024863247863</v>
       </c>
-      <c r="D4" s="9" t="n">
+      <c r="D4" s="11" t="n">
         <v>0.03519706153846154</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>0.3398119384615385</v>
       </c>
-      <c r="F4" s="9" t="n">
+      <c r="F4" s="11" t="n">
         <v>0.03519706153846154</v>
       </c>
       <c r="G4" s="4" t="n">
@@ -1589,65 +1645,6 @@
       </c>
       <c r="K4" s="4" t="n">
         <v>9.38565782113537</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="B5" s="9" t="n">
-        <v>0.07400945213675213</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>0.2658024863247863</v>
-      </c>
-      <c r="D5" s="9" t="n">
-        <v>0.03519706153846154</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0.3398119384615385</v>
-      </c>
-      <c r="F5" s="9" t="n">
-        <v>0.03519706153846154</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>19.7353802540078</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>70.87896192485682</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>9.38565782113537</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>90.61434217886463</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>9.38565782113537</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="8" t="inlineStr">
-        <is>
-          <t>48,58,88</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1657,4 +1654,405 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="inlineStr"/>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Total Landings</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="n"/>
+      <c r="D1" s="9" t="n"/>
+      <c r="E1" s="9" t="n"/>
+      <c r="F1" s="10" t="n"/>
+      <c r="G1" s="8" t="inlineStr">
+        <is>
+          <t>Weighted % by Landings</t>
+        </is>
+      </c>
+      <c r="H1" s="9" t="n"/>
+      <c r="I1" s="9" t="n"/>
+      <c r="J1" s="9" t="n"/>
+      <c r="K1" s="10" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr"/>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>U (Mt)</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (Mt)</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>O (Mt)</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (Mt)</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (Mt)</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="H2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="I2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="K2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="4" t="n"/>
+      <c r="I3" s="4" t="n"/>
+      <c r="J3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13" t="n">
+        <v>0.004243740170940171</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0.2639120598290598</v>
+      </c>
+      <c r="D4" s="11" t="n">
+        <v>0.01846292008547009</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0.2681558</v>
+      </c>
+      <c r="F4" s="11" t="n">
+        <v>0.01846292008547009</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1.480622120451408</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>92.07774696305981</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>6.441630916488783</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>93.55836908351122</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>6.441630916488783</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="n">
+        <v>0.06976571196581197</v>
+      </c>
+      <c r="C5" s="13" t="n">
+        <v>0.001792115384615385</v>
+      </c>
+      <c r="D5" s="11" t="n">
+        <v>0.01673414145299145</v>
+      </c>
+      <c r="E5" s="11" t="n">
+        <v>0.07155782735042736</v>
+      </c>
+      <c r="F5" s="11" t="n">
+        <v>0.01673414145299145</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>79.01705320576171</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>2.029760360883459</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>18.95318643335483</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>81.04681356664517</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>18.95318643335483</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>9.83111111111111e-05</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>9.83111111111111e-05</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>Salmon Total</t>
+        </is>
+      </c>
+      <c r="B7" s="11" t="n">
+        <v>0.07400945213675214</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>0.2658024863247863</v>
+      </c>
+      <c r="D7" s="11" t="n">
+        <v>0.03519706153846154</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>0.3398119384615385</v>
+      </c>
+      <c r="F7" s="11" t="n">
+        <v>0.03519706153846154</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>19.73538025400781</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>70.87896192485682</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>9.38565782113537</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>90.61434217886463</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>9.38565782113537</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="inlineStr"/>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Updated SoSI Categories</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="n"/>
+      <c r="D1" s="9" t="n"/>
+      <c r="E1" s="9" t="n"/>
+      <c r="F1" s="9" t="n"/>
+      <c r="G1" s="10" t="n"/>
+      <c r="H1" s="8" t="inlineStr">
+        <is>
+          <t>Previous SoSI Categories</t>
+        </is>
+      </c>
+      <c r="I1" s="9" t="n"/>
+      <c r="J1" s="9" t="n"/>
+      <c r="K1" s="9" t="n"/>
+      <c r="L1" s="9" t="n"/>
+      <c r="M1" s="10" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr"/>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>Coverage (%)</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+      <c r="H2" s="8" t="inlineStr">
+        <is>
+          <t>Coverage (%)</t>
+        </is>
+      </c>
+      <c r="I2" s="8" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="K2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="L2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="M2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="4" t="n"/>
+      <c r="I3" s="4" t="n"/>
+      <c r="J3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="4" t="n"/>
+      <c r="M3" s="4" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>Salmon</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>19.7353802540078</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>70.87896192485682</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>9.38565782113537</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>90.61434217886463</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>9.38565782113537</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/output/aggregate_tables/Area Statistics/area_Salmon_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_Salmon_summary.xlsx
@@ -1036,7 +1036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1247,6 +1247,52 @@
       </c>
       <c r="N4" s="3" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>85</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>30.58823529411765</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>36.47058823529412</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>32.94117647058823</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>67.05882352941175</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>32.94117647058823</v>
       </c>
     </row>
   </sheetData>
@@ -1914,7 +1960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1932,77 +1978,65 @@
       <c r="C1" s="9" t="n"/>
       <c r="D1" s="9" t="n"/>
       <c r="E1" s="9" t="n"/>
-      <c r="F1" s="9" t="n"/>
-      <c r="G1" s="10" t="n"/>
-      <c r="H1" s="8" t="inlineStr">
+      <c r="F1" s="10" t="n"/>
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Previous SoSI Categories</t>
         </is>
       </c>
+      <c r="H1" s="9" t="n"/>
       <c r="I1" s="9" t="n"/>
       <c r="J1" s="9" t="n"/>
-      <c r="K1" s="9" t="n"/>
-      <c r="L1" s="9" t="n"/>
-      <c r="M1" s="10" t="n"/>
+      <c r="K1" s="10" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="8" t="inlineStr"/>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>Coverage (%)</t>
+          <t>U (%)</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
           <t>U (%)</t>
         </is>
       </c>
-      <c r="D2" s="8" t="inlineStr">
+      <c r="H2" s="8" t="inlineStr">
         <is>
           <t>MSF (%)</t>
         </is>
       </c>
-      <c r="E2" s="8" t="inlineStr">
+      <c r="I2" s="8" t="inlineStr">
         <is>
           <t>O (%)</t>
         </is>
       </c>
-      <c r="F2" s="8" t="inlineStr">
+      <c r="J2" s="8" t="inlineStr">
         <is>
           <t>Sustainable (%)</t>
         </is>
       </c>
-      <c r="G2" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="H2" s="8" t="inlineStr">
-        <is>
-          <t>Coverage (%)</t>
-        </is>
-      </c>
-      <c r="I2" s="8" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="J2" s="8" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
       <c r="K2" s="8" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
-      </c>
-      <c r="L2" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="M2" s="8" t="inlineStr">
         <is>
           <t>Unsustainable (%)</t>
         </is>
@@ -2020,8 +2054,6 @@
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
-      <c r="L3" s="4" t="n"/>
-      <c r="M3" s="4" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="8" t="inlineStr">
@@ -2029,29 +2061,26 @@
           <t>Salmon</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
-        <v>100</v>
+      <c r="B4" s="4" t="n">
+        <v>19.7353802540078</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>19.7353802540078</v>
+        <v>70.87896192485682</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>70.87896192485682</v>
+        <v>9.38565782113537</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>9.38565782113537</v>
+        <v>90.61434217886463</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>90.61434217886463</v>
-      </c>
-      <c r="G4" s="4" t="n">
         <v>9.38565782113537</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
